--- a/planilhas/coleta_moises.xlsx
+++ b/planilhas/coleta_moises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,6 +859,71 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Novo leblon </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rua</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apraioh </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rua</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JH BEACH </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rua</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ninah</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TZ CORONEL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Av José Luiz  Ferraz, 400 Bloco 1 - 306</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
